--- a/biology/Botanique/Germandrée_petit-chêne/Germandrée_petit-chêne.xlsx
+++ b/biology/Botanique/Germandrée_petit-chêne/Germandrée_petit-chêne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Germandr%C3%A9e_petit-ch%C3%AAne</t>
+          <t>Germandrée_petit-chêne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Teucrium chamaedrys
 La Germandrée petit-chêne (Teucrium chamaedrys) est une plante herbacée vivace de la famille des Lamiacées. Elle affectionne les terrains calcaires secs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Germandr%C3%A9e_petit-ch%C3%AAne</t>
+          <t>Germandrée_petit-chêne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante vivace gazonnante, ligneuse à la base, jusqu’à 30 cm. Tiges nombreuses, plus ou moins dressées, velues. 
 Feuilles de 1 à 3 cm, brièvement pétiolées, vert sombre, luisant dessus, fortement crénelées. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Germandr%C3%A9e_petit-ch%C3%AAne</t>
+          <t>Germandrée_petit-chêne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,13 +560,49 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chamaedrys officinalis Moench
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chamaedrys officinalis Moench
 Monochilon rubellus Dulac
-Teucrium officinale Lam.
-Caractéristiques
-Organes reproducteurs
+Teucrium officinale Lam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Germandrée_petit-chêne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Germandr%C3%A9e_petit-ch%C3%AAne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : rose
 Période de floraison : juin-octobre
 Inflorescence : glomérules spiciformes
@@ -570,33 +620,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Germandr%C3%A9e_petit-ch%C3%AAne</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Germandrée_petit-chêne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Germandr%C3%A9e_petit-ch%C3%AAne</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous le nom de chamoedrys, ses feuilles pouvaient être un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle [1]. Les parties aériennes furent un temps utilisées dans le cadre de régimes amaigrissant[2] avant d'être interdites de vente en France et en Allemagne car hépatotoxiques (toxicité hépatique due à des composés phytochimiques de la famille des diterpènes appelés clerodanes), notamment chez les personnes carencées en glutathion peroxydase du fait du jeûne. Cette hépatotoxicité fut à l'origine d'hépatites aiguës cytolytiques[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous le nom de chamoedrys, ses feuilles pouvaient être un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle . Les parties aériennes furent un temps utilisées dans le cadre de régimes amaigrissant avant d'être interdites de vente en France et en Allemagne car hépatotoxiques (toxicité hépatique due à des composés phytochimiques de la famille des diterpènes appelés clerodanes), notamment chez les personnes carencées en glutathion peroxydase du fait du jeûne. Cette hépatotoxicité fut à l'origine d'hépatites aiguës cytolytiques.
 </t>
         </is>
       </c>
